--- a/resources/data/data.xlsx
+++ b/resources/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calvario31\Documents\Projects\Appium\Python\completeFramework\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3ECBD5-2F18-43FE-ABD1-E409462DE9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51525AD7-E52F-43AC-9A6C-3DC362B3295C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{F008E664-F794-4E1A-9CA1-F1E50FE20633}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F008E664-F794-4E1A-9CA1-F1E50FE20633}"/>
   </bookViews>
   <sheets>
     <sheet name="itemData" sheetId="1" r:id="rId1"/>
@@ -490,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AD221F-08AC-4A4A-AD00-B2F8FEF53A50}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,65 +502,50 @@
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6">
         <v>29.99</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6">
         <v>9.99</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6">
         <v>15.99</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>7.99</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -572,7 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9C622D-5F3B-49E4-BA11-72D550E2C40A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
